--- a/Dados - Trabalho.xlsx
+++ b/Dados - Trabalho.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/0BwLdF92sNKktMThjMDZiTkd5akk/Marketing/Events/UFMG/UFMG - Quandec Class/2020_1 copy/TP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klysm\Desktop\GitHub\trabalho-QuanDec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD7237-5479-7143-B53B-C0A7A8C9B46A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9627F3-62BF-4C82-9827-052192F6F626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32205" yWindow="2985" windowWidth="30750" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados - Originais" sheetId="3" r:id="rId1"/>
     <sheet name="Dados - Fábrica Rússia" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
   <si>
     <t>Fábricas</t>
   </si>
@@ -147,33 +148,6 @@
     <t>Acessórios ($/peca)</t>
   </si>
   <si>
-    <t>América do Norte</t>
-  </si>
-  <si>
-    <t>América do Sul</t>
-  </si>
-  <si>
-    <t>América Central</t>
-  </si>
-  <si>
-    <t>Europa</t>
-  </si>
-  <si>
-    <t>Oriente Médio</t>
-  </si>
-  <si>
-    <t>África</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Norte da Ásia</t>
-  </si>
-  <si>
-    <t>Sul da Ásia</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -286,13 +260,199 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        VEST    CAL    ACES :=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ARG 400     340    0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BRA 630     535    0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EUA 1000    780    1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MEX 580     0      0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ITA 590     460    350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    POL 410     400    0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    IND 895     0      0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CHI 0       850    0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    COR 0       350    290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    IDO 0       630    510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VIE 760     0      520;</t>
+  </si>
+  <si>
+    <t>VEST</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>ACES</t>
+  </si>
+  <si>
+    <t>param ch :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    POL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    COR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    IDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VIE</t>
+  </si>
+  <si>
+    <t>520;</t>
+  </si>
+  <si>
+    <t>ARG 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NAM</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>29.25</t>
+  </si>
+  <si>
+    <t>53.6</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>55.25</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>50.4</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>56.9</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>60.1</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>30.9</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>45.8</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>11.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -321,6 +481,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -336,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -431,11 +619,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,9 +672,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,29 +690,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,7 +765,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -821,360 +1063,411 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B462-4D54-E94E-AE48-D7CCFB0FBF96}">
   <dimension ref="B1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="27" max="27" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
-    <col min="39" max="39" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="39" max="39" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="G2" s="18" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-      <c r="R2" s="18" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
+      <c r="R2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-    </row>
-    <row r="3" spans="2:29" ht="39" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="S2" s="29"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+    </row>
+    <row r="3" spans="2:29" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>29.25</v>
-      </c>
-      <c r="E4" s="4">
-        <v>53.6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="23">
+        <v>62</v>
+      </c>
+      <c r="I4" s="24">
+        <v>3</v>
+      </c>
+      <c r="J4" s="24">
+        <v>2</v>
+      </c>
+      <c r="K4" s="24">
         <v>8</v>
       </c>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="L4" s="24">
+        <v>12</v>
+      </c>
+      <c r="M4" s="24">
+        <v>11</v>
+      </c>
+      <c r="N4" s="24">
+        <v>14</v>
+      </c>
+      <c r="O4" s="24">
+        <v>14</v>
+      </c>
+      <c r="P4" s="24">
+        <v>15</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="T4">
+        <f>S4*1000000</f>
+        <v>7500000</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="25">
+        <v>68</v>
+      </c>
+      <c r="I5" s="24">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
-        <v>8</v>
-      </c>
-      <c r="L4" s="6">
-        <v>12</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="J5" s="24">
+        <v>2</v>
+      </c>
+      <c r="K5" s="24">
+        <v>7</v>
+      </c>
+      <c r="L5" s="24">
         <v>11</v>
       </c>
-      <c r="N4" s="6">
+      <c r="M5" s="24">
+        <v>10</v>
+      </c>
+      <c r="N5" s="24">
+        <v>13</v>
+      </c>
+      <c r="O5" s="24">
+        <v>13</v>
+      </c>
+      <c r="P5" s="24">
         <v>14</v>
       </c>
-      <c r="O4" s="6">
-        <v>14</v>
-      </c>
-      <c r="P4" s="6">
-        <v>15</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="6">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>55.25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="6">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>7</v>
-      </c>
-      <c r="L5" s="6">
-        <v>11</v>
-      </c>
-      <c r="M5" s="6">
-        <v>10</v>
-      </c>
-      <c r="N5" s="6">
-        <v>13</v>
-      </c>
-      <c r="O5" s="6">
-        <v>13</v>
-      </c>
-      <c r="P5" s="6">
-        <v>14</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="6">
+      <c r="R5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="22">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>50.4</v>
+      <c r="T5">
+        <f t="shared" ref="T5:T14" si="0">S5*1000000</f>
+        <v>6500000</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5">
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="E6" s="4">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="25">
+        <v>66</v>
+      </c>
+      <c r="I6" s="24">
+        <v>5</v>
+      </c>
+      <c r="J6" s="24">
+        <v>3</v>
+      </c>
+      <c r="K6" s="24">
         <v>6</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="L6" s="24">
+        <v>10</v>
+      </c>
+      <c r="M6" s="24">
+        <v>10</v>
+      </c>
+      <c r="N6" s="24">
+        <v>15</v>
+      </c>
+      <c r="O6" s="24">
+        <v>9</v>
+      </c>
+      <c r="P6" s="24">
+        <v>11</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="22">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="25">
+        <v>66</v>
+      </c>
+      <c r="I7" s="24">
+        <v>4</v>
+      </c>
+      <c r="J7" s="24">
         <v>3</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K7" s="24">
+        <v>7.8</v>
+      </c>
+      <c r="L7" s="24">
+        <v>11</v>
+      </c>
+      <c r="M7" s="24">
+        <v>12</v>
+      </c>
+      <c r="N7" s="24">
+        <v>13</v>
+      </c>
+      <c r="O7" s="24">
+        <v>11</v>
+      </c>
+      <c r="P7" s="24">
+        <v>12</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="22">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="25">
+        <v>61</v>
+      </c>
+      <c r="I8" s="24">
         <v>6</v>
       </c>
-      <c r="L6" s="6">
+      <c r="J8" s="24">
+        <v>8</v>
+      </c>
+      <c r="K8" s="24">
+        <v>1.7</v>
+      </c>
+      <c r="L8" s="24">
+        <v>4</v>
+      </c>
+      <c r="M8" s="24">
+        <v>7</v>
+      </c>
+      <c r="N8" s="24">
+        <v>11</v>
+      </c>
+      <c r="O8" s="24">
+        <v>8</v>
+      </c>
+      <c r="P8" s="24">
+        <v>9</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="22">
         <v>10</v>
       </c>
-      <c r="M6" s="6">
-        <v>10</v>
-      </c>
-      <c r="N6" s="6">
-        <v>15</v>
-      </c>
-      <c r="O6" s="6">
-        <v>9</v>
-      </c>
-      <c r="P6" s="6">
-        <v>11</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>34.1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>56.9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="6">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6">
-        <v>4</v>
-      </c>
-      <c r="J7" s="6">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="L7" s="6">
-        <v>11</v>
-      </c>
-      <c r="M7" s="6">
-        <v>12</v>
-      </c>
-      <c r="N7" s="6">
-        <v>13</v>
-      </c>
-      <c r="O7" s="6">
-        <v>11</v>
-      </c>
-      <c r="P7" s="6">
-        <v>12</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>36.4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>60.1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6">
-        <v>6</v>
-      </c>
-      <c r="J8" s="6">
-        <v>8</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="L8" s="6">
-        <v>4</v>
-      </c>
-      <c r="M8" s="6">
-        <v>7</v>
-      </c>
-      <c r="N8" s="6">
-        <v>11</v>
-      </c>
-      <c r="O8" s="6">
-        <v>8</v>
-      </c>
-      <c r="P8" s="6">
-        <v>9</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
@@ -1182,202 +1475,242 @@
       <c r="D9" s="4">
         <v>33</v>
       </c>
-      <c r="E9" s="4">
-        <v>53.5</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="25">
+        <v>71</v>
+      </c>
+      <c r="I9" s="24">
+        <v>7</v>
+      </c>
+      <c r="J9" s="24">
         <v>9</v>
       </c>
-      <c r="H9" s="6">
+      <c r="K9" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="L9" s="24">
+        <v>4</v>
+      </c>
+      <c r="M9" s="24">
+        <v>8</v>
+      </c>
+      <c r="N9" s="24">
         <v>9</v>
       </c>
-      <c r="I9" s="6">
+      <c r="O9" s="24">
+        <v>8</v>
+      </c>
+      <c r="P9" s="24">
+        <v>8</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="22">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="25">
+        <v>61</v>
+      </c>
+      <c r="I10" s="24">
+        <v>11</v>
+      </c>
+      <c r="J10" s="24">
+        <v>9</v>
+      </c>
+      <c r="K10" s="24">
         <v>7</v>
       </c>
-      <c r="J9" s="6">
+      <c r="L10" s="24">
+        <v>3</v>
+      </c>
+      <c r="M10" s="24">
+        <v>6</v>
+      </c>
+      <c r="N10" s="24">
+        <v>6</v>
+      </c>
+      <c r="O10" s="24">
+        <v>5</v>
+      </c>
+      <c r="P10" s="24">
+        <v>5</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="22">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="25">
+        <v>71</v>
+      </c>
+      <c r="I11" s="24">
+        <v>15</v>
+      </c>
+      <c r="J11" s="24">
+        <v>14</v>
+      </c>
+      <c r="K11" s="24">
         <v>9</v>
       </c>
-      <c r="K9" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="L9" s="6">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6">
-        <v>8</v>
-      </c>
-      <c r="N9" s="6">
-        <v>9</v>
-      </c>
-      <c r="O9" s="6">
-        <v>8</v>
-      </c>
-      <c r="P9" s="6">
-        <v>8</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="L11" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6">
-        <v>11</v>
-      </c>
-      <c r="J10" s="6">
-        <v>9</v>
-      </c>
-      <c r="K10" s="6">
-        <v>7</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="M11" s="24">
+        <v>5</v>
+      </c>
+      <c r="N11" s="24">
+        <v>5</v>
+      </c>
+      <c r="O11" s="24">
+        <v>1</v>
+      </c>
+      <c r="P11" s="24">
         <v>3</v>
       </c>
-      <c r="M10" s="6">
+      <c r="R11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" s="22">
         <v>6</v>
       </c>
-      <c r="N10" s="6">
-        <v>6</v>
-      </c>
-      <c r="O10" s="6">
-        <v>5</v>
-      </c>
-      <c r="P10" s="6">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45.8</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6">
-        <v>12</v>
-      </c>
-      <c r="I11" s="6">
-        <v>15</v>
-      </c>
-      <c r="J11" s="6">
-        <v>14</v>
-      </c>
-      <c r="K11" s="6">
-        <v>9</v>
-      </c>
-      <c r="L11" s="6">
-        <v>5</v>
-      </c>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="6">
-        <v>5</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6">
-        <v>3</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="X11">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="C12" s="4">
         <v>13</v>
       </c>
-      <c r="D12" s="4">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="E12" s="4">
-        <v>56.9</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="25">
+        <v>62</v>
+      </c>
+      <c r="I12" s="24">
+        <v>15</v>
+      </c>
+      <c r="J12" s="24">
+        <v>14</v>
+      </c>
+      <c r="K12" s="24">
+        <v>9</v>
+      </c>
+      <c r="L12" s="24">
+        <v>6</v>
+      </c>
+      <c r="M12" s="24">
+        <v>6</v>
+      </c>
+      <c r="N12" s="24">
+        <v>6</v>
+      </c>
+      <c r="O12" s="24">
+        <v>2</v>
+      </c>
+      <c r="P12" s="24">
+        <v>4</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="22">
         <v>12</v>
       </c>
-      <c r="H12" s="6">
-        <v>13</v>
-      </c>
-      <c r="I12" s="6">
-        <v>15</v>
-      </c>
-      <c r="J12" s="6">
-        <v>14</v>
-      </c>
-      <c r="K12" s="6">
-        <v>9</v>
-      </c>
-      <c r="L12" s="6">
-        <v>6</v>
-      </c>
-      <c r="M12" s="6">
-        <v>6</v>
-      </c>
-      <c r="N12" s="6">
-        <v>6</v>
-      </c>
-      <c r="O12" s="6">
-        <v>2</v>
-      </c>
-      <c r="P12" s="6">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.6</v>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="D13" s="4">
         <v>15</v>
@@ -1385,160 +1718,180 @@
       <c r="E13" s="4">
         <v>26</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="6">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="G13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="25">
+        <v>69</v>
+      </c>
+      <c r="I13" s="24">
         <v>16</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="24">
         <v>16.5</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="24">
         <v>11.5</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="24">
         <v>9</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="24">
         <v>8</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="24">
         <v>3</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="24">
         <v>4</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="24">
         <v>2</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" s="6">
+      <c r="R13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" s="22">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>11.4</v>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+      <c r="W13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="X13">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E14" s="4">
         <v>26</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="6">
-        <v>15</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="G14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="25">
+        <v>70</v>
+      </c>
+      <c r="I14" s="24">
         <v>16.5</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="24">
         <v>16.5</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="24">
         <v>12</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="24">
         <v>10</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="24">
         <v>9</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="24">
         <v>4</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="24">
         <v>4</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="24">
         <v>2</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" s="6">
+      <c r="R14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="22">
         <v>2.5499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="G17" s="23" t="s">
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>2550000</v>
+      </c>
+      <c r="W14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="X14">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="G17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="L17" s="23" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="L17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="2:15" ht="39" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>83</v>
+      <c r="C19" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>4</v>
@@ -1552,25 +1905,25 @@
       <c r="J19" s="4">
         <v>250</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="6">
+      <c r="L19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="24">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
@@ -1584,25 +1937,25 @@
       <c r="J20" s="4">
         <v>320</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="6">
+      <c r="L20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="24">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>6</v>
@@ -1616,25 +1969,28 @@
       <c r="J21" s="4">
         <v>1500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="6">
+      <c r="L21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="24">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>83</v>
+      <c r="C22" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>7</v>
@@ -1648,25 +2004,25 @@
       <c r="J22" s="4">
         <v>150</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="L22" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="24">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
@@ -1680,25 +2036,25 @@
       <c r="J23" s="4">
         <v>350</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="L23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="24">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>9</v>
@@ -1712,25 +2068,25 @@
       <c r="J24" s="4">
         <v>200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="6">
+      <c r="L24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="24">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>84</v>
+      <c r="C25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -1744,25 +2100,25 @@
       <c r="J25" s="4">
         <v>700</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="L25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="24">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>84</v>
+      <c r="C26" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>11</v>
@@ -1776,25 +2132,25 @@
       <c r="J26" s="4">
         <v>1000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="L26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" s="24">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>83</v>
+      <c r="C27" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
@@ -1808,25 +2164,25 @@
       <c r="J27" s="4">
         <v>290</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="6">
+      <c r="L27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="24">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>83</v>
+      <c r="C28" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>13</v>
@@ -1840,25 +2196,25 @@
       <c r="J28" s="4">
         <v>510</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28" s="6">
+      <c r="L28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="24">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>14</v>
@@ -1872,85 +2228,85 @@
       <c r="J29" s="4">
         <v>520</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="6">
+      <c r="L29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="24">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="G32" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="L32" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-    </row>
-    <row r="33" spans="2:15" ht="39" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="G32" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
+      <c r="L32" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="32"/>
+    </row>
+    <row r="33" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="16" t="s">
+      <c r="H33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="16" t="s">
+      <c r="O33" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C34" s="4">
         <v>693</v>
@@ -1962,7 +2318,7 @@
         <v>252</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="H34" s="4">
         <v>970</v>
@@ -1974,21 +2330,21 @@
         <v>323</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="6">
+        <v>113</v>
+      </c>
+      <c r="M34" s="24">
         <v>21</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="24">
         <v>72.2</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="24">
         <v>88.5</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C35" s="4">
         <v>231</v>
@@ -2000,7 +2356,7 @@
         <v>72</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="H35" s="4">
         <v>367</v>
@@ -2012,21 +2368,21 @@
         <v>77</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="6">
+        <v>105</v>
+      </c>
+      <c r="M35" s="24">
         <v>15</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="24">
         <v>64.599999999999994</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="24">
         <v>70.8</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4">
         <v>73</v>
@@ -2038,7 +2394,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="H36" s="4">
         <v>88</v>
@@ -2050,21 +2406,21 @@
         <v>8</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M36" s="6">
+        <v>106</v>
+      </c>
+      <c r="M36" s="24">
         <v>18</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="24">
         <v>36</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="24">
         <v>67.849999999999994</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C37" s="4">
         <v>451</v>
@@ -2076,7 +2432,7 @@
         <v>126</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H37" s="4">
         <v>632</v>
@@ -2088,21 +2444,21 @@
         <v>161</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" s="6">
+        <v>107</v>
+      </c>
+      <c r="M37" s="24">
         <v>15</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="24">
         <v>72.2</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="24">
         <v>88.5</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4">
         <v>141</v>
@@ -2114,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="H38" s="4">
         <v>170</v>
@@ -2126,21 +2482,21 @@
         <v>23</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="6">
+        <v>108</v>
+      </c>
+      <c r="M38" s="24">
         <v>22</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="24">
         <v>57</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="24">
         <v>61.95</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C39" s="4">
         <v>73</v>
@@ -2152,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="H39" s="4">
         <v>88</v>
@@ -2164,21 +2520,21 @@
         <v>11</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="6">
+        <v>109</v>
+      </c>
+      <c r="M39" s="24">
         <v>14.7</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="24">
         <v>40</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="24">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4">
         <v>68</v>
@@ -2190,7 +2546,7 @@
         <v>24</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="H40" s="4">
         <v>81</v>
@@ -2202,21 +2558,21 @@
         <v>26</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" s="6">
+        <v>110</v>
+      </c>
+      <c r="M40" s="24">
         <v>21</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="24">
         <v>72.2</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="24">
         <v>76.7</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C41" s="4">
         <v>572</v>
@@ -2228,7 +2584,7 @@
         <v>144</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="H41" s="4">
         <v>801</v>
@@ -2240,21 +2596,21 @@
         <v>198</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41" s="6">
+        <v>111</v>
+      </c>
+      <c r="M41" s="24">
         <v>15.4</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="24">
         <v>45.6</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="24">
         <v>44.25</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C42" s="4">
         <v>225</v>
@@ -2266,7 +2622,7 @@
         <v>72</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="H42" s="4">
         <v>316</v>
@@ -2278,58 +2634,58 @@
         <v>92</v>
       </c>
       <c r="L42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M42" s="24">
+        <v>14</v>
+      </c>
+      <c r="N42" s="24">
+        <v>34</v>
+      </c>
+      <c r="O42" s="24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M42" s="6">
-        <v>14</v>
-      </c>
-      <c r="N42" s="6">
-        <v>34</v>
-      </c>
-      <c r="O42" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" ht="39" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C47" s="4">
         <v>800</v>
@@ -2359,9 +2715,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>5</v>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="C48" s="4">
         <v>1500</v>
@@ -2391,9 +2747,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>6</v>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="C49" s="4">
         <v>5000</v>
@@ -2423,9 +2779,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>7</v>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="C50" s="4">
         <v>3000</v>
@@ -2455,9 +2811,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
-        <v>8</v>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="C51" s="4">
         <v>1000</v>
@@ -2487,9 +2843,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>9</v>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="C52" s="4">
         <v>1000</v>
@@ -2519,9 +2875,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
-        <v>10</v>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="C53" s="4">
         <v>500</v>
@@ -2532,7 +2888,7 @@
       <c r="E53" s="4">
         <v>500</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="14">
         <v>600</v>
       </c>
       <c r="G53" s="4">
@@ -2551,9 +2907,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>11</v>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="C54" s="4">
         <v>1000</v>
@@ -2567,7 +2923,7 @@
       <c r="F54" s="4">
         <v>1000</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <v>100</v>
       </c>
       <c r="H54" s="4">
@@ -2583,9 +2939,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>12</v>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="C55" s="4">
         <v>1000</v>
@@ -2615,9 +2971,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
-        <v>13</v>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C56" s="4">
         <v>600</v>
@@ -2647,9 +3003,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>14</v>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="C57" s="4">
         <v>600</v>
@@ -2681,45 +3037,47 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="G32:J32"/>
     <mergeCell ref="L32:O32"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FC704C-65BB-AA48-9E16-73BE832A225D}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D6:E8"/>
+      <selection activeCell="G9" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
@@ -2731,15 +3089,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E3" s="6">
         <v>7.15</v>
@@ -2751,15 +3109,15 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8">
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4">
         <v>1320</v>
@@ -2771,45 +3129,45 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4">
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
@@ -2821,28 +3179,88 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2850,7 +3268,274 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BE91F7-0F36-426C-9723-BF868C0F0CFD}">
+  <dimension ref="F18:L43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="12" max="12" width="47.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="4">
+        <v>400</v>
+      </c>
+      <c r="H19" s="4">
+        <v>340</v>
+      </c>
+      <c r="I19" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="4">
+        <v>630</v>
+      </c>
+      <c r="H20" s="4">
+        <v>535</v>
+      </c>
+      <c r="I20" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="4">
+        <v>780</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="4">
+        <v>580</v>
+      </c>
+      <c r="H22" s="4">
+        <v>415</v>
+      </c>
+      <c r="I22" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="4">
+        <v>590</v>
+      </c>
+      <c r="H23" s="4">
+        <v>460</v>
+      </c>
+      <c r="I23" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="4">
+        <v>410</v>
+      </c>
+      <c r="H24" s="4">
+        <v>400</v>
+      </c>
+      <c r="I24" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="4">
+        <v>895</v>
+      </c>
+      <c r="H25" s="4">
+        <v>600</v>
+      </c>
+      <c r="I25" s="4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1320</v>
+      </c>
+      <c r="H26" s="4">
+        <v>850</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
+        <v>100</v>
+      </c>
+      <c r="H27" s="4">
+        <v>350</v>
+      </c>
+      <c r="I27" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="4">
+        <v>815</v>
+      </c>
+      <c r="H28" s="4">
+        <v>630</v>
+      </c>
+      <c r="I28" s="4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="4">
+        <v>760</v>
+      </c>
+      <c r="H29" s="4">
+        <v>680</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="5b7d7f9c-6463-4d0f-a88b-06457380a41d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E26B5F1884195D4F973AD9452FB5C780" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed9bcaa5cc46bf96181d1efbb5fe1d41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b7d7f9c-6463-4d0f-a88b-06457380a41d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d586421a777b5f8e1956aea8b6f3c6a" ns2:_="">
     <xsd:import namespace="5b7d7f9c-6463-4d0f-a88b-06457380a41d"/>
@@ -2976,31 +3661,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="5b7d7f9c-6463-4d0f-a88b-06457380a41d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5269ECEF-58D3-4B62-AE39-1BD81BB09A85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB65B8F-BB5D-4294-A35B-CB80686E0004}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5b7d7f9c-6463-4d0f-a88b-06457380a41d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C36FF0-0D4C-47EA-BF9B-D1C1FAA3C6E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C36FF0-0D4C-47EA-BF9B-D1C1FAA3C6E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB65B8F-BB5D-4294-A35B-CB80686E0004}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5269ECEF-58D3-4B62-AE39-1BD81BB09A85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5b7d7f9c-6463-4d0f-a88b-06457380a41d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dados - Trabalho.xlsx
+++ b/Dados - Trabalho.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klysm\Desktop\GitHub\trabalho-QuanDec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9627F3-62BF-4C82-9827-052192F6F626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084E269D-51A7-449F-8A83-69F9BC84334C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32205" yWindow="2985" windowWidth="30750" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29160" yWindow="13605" windowWidth="22170" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados - Originais" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="137">
   <si>
     <t>Fábricas</t>
   </si>
@@ -450,7 +450,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -696,19 +696,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,20 +714,29 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,10 +744,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B462-4D54-E94E-AE48-D7CCFB0FBF96}">
   <dimension ref="B1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J29" sqref="G19:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,29 +1091,29 @@
       <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="28"/>
       <c r="G2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="28"/>
       <c r="R2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
+      <c r="S2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
     </row>
     <row r="3" spans="2:29" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -1166,7 +1166,7 @@
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1178,55 +1178,67 @@
       <c r="E4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <v>62</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>3</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <v>2</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="22">
         <v>8</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="22">
         <v>12</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="22">
         <v>11</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="22">
         <v>14</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="22">
         <v>14</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="22">
         <v>15</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="20">
         <v>7.5</v>
       </c>
       <c r="T4">
         <f>S4*1000000</f>
         <v>7500000</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="W4" s="18" t="s">
         <v>95</v>
       </c>
       <c r="X4">
         <v>7500000</v>
       </c>
+      <c r="Y4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>400</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>340</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1238,55 +1250,67 @@
       <c r="E5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <v>68</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>2</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="22">
         <v>2</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="22">
         <v>7</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="22">
         <v>11</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="22">
         <v>10</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="22">
         <v>13</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="22">
         <v>13</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="22">
         <v>14</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="20">
         <v>6.5</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T14" si="0">S5*1000000</f>
         <v>6500000</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="W5" s="19" t="s">
         <v>94</v>
       </c>
       <c r="X5">
         <v>6500000</v>
       </c>
+      <c r="Y5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>630</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>535</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1298,55 +1322,67 @@
       <c r="E6" s="4">
         <v>40</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>66</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>5</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <v>3</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="22">
         <v>6</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="22">
         <v>10</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="22">
         <v>10</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="22">
         <v>15</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="22">
         <v>9</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="22">
         <v>11</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="20">
         <v>7</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="W6" s="19" t="s">
         <v>93</v>
       </c>
       <c r="X6">
         <v>7000000</v>
       </c>
+      <c r="Y6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>780</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1358,55 +1394,67 @@
       <c r="E7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>66</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>4</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="22">
         <v>3</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="22">
         <v>7.8</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="22">
         <v>11</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="22">
         <v>12</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="22">
         <v>13</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="22">
         <v>11</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="22">
         <v>12</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="20">
         <v>7</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="W7" s="19" t="s">
         <v>92</v>
       </c>
       <c r="X7">
         <v>7000000</v>
       </c>
+      <c r="Y7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>580</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1418,55 +1466,67 @@
       <c r="E8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="23">
         <v>61</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="22">
         <v>6</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="22">
         <v>8</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="22">
         <v>1.7</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="22">
         <v>4</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="22">
         <v>7</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="22">
         <v>11</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="22">
         <v>8</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="22">
         <v>9</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="20">
         <v>10</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="W8" s="19" t="s">
         <v>96</v>
       </c>
       <c r="X8">
         <v>10000000</v>
       </c>
+      <c r="Y8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>590</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>460</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>350</v>
+      </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="4">
@@ -1478,55 +1538,67 @@
       <c r="E9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>71</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>7</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="22">
         <v>9</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="22">
         <v>3.2</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="22">
         <v>4</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="22">
         <v>8</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="22">
         <v>9</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="22">
         <v>8</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <v>8</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="20">
         <v>5</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="W9" s="19" t="s">
         <v>97</v>
       </c>
       <c r="X9">
         <v>5000000</v>
       </c>
+      <c r="Y9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>410</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>400</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1538,55 +1610,67 @@
       <c r="E10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>61</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>11</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>9</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <v>7</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <v>3</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <v>6</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="22">
         <v>6</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="22">
         <v>5</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <v>5</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="20">
         <v>4</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="W10" s="19" t="s">
         <v>98</v>
       </c>
       <c r="X10">
         <v>4000000</v>
       </c>
+      <c r="Y10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>895</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1598,55 +1682,67 @@
       <c r="E11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>71</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>15</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="22">
         <v>14</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="22">
         <v>9</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="22">
         <v>5</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="22">
         <v>5</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="22">
         <v>5</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="22">
         <v>1</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="22">
         <v>3</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="20">
         <v>6</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
         <v>6000000</v>
       </c>
-      <c r="W11" s="21" t="s">
+      <c r="W11" s="19" t="s">
         <v>99</v>
       </c>
       <c r="X11">
         <v>6000000</v>
       </c>
+      <c r="Y11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>850</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="4">
@@ -1658,55 +1754,67 @@
       <c r="E12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>62</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="22">
         <v>15</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>14</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="22">
         <v>9</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="22">
         <v>6</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="22">
         <v>6</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="22">
         <v>6</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="22">
         <v>2</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="22">
         <v>4</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="20">
         <v>12</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
-      <c r="W12" s="21" t="s">
+      <c r="W12" s="19" t="s">
         <v>100</v>
       </c>
       <c r="X12">
         <v>12000000</v>
       </c>
+      <c r="Y12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>350</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>290</v>
+      </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1718,55 +1826,67 @@
       <c r="E13" s="4">
         <v>26</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>69</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>16</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="22">
         <v>16.5</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <v>11.5</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <v>9</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="22">
         <v>8</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="22">
         <v>3</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="22">
         <v>4</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="22">
         <v>2</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="20">
         <v>2.5</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="W13" s="21" t="s">
+      <c r="W13" s="19" t="s">
         <v>101</v>
       </c>
       <c r="X13">
         <v>2500000</v>
       </c>
+      <c r="Y13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>630</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>510</v>
+      </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1778,51 +1898,63 @@
       <c r="E14" s="4">
         <v>26</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="23">
         <v>70</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>16.5</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>16.5</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>12</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>10</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="22">
         <v>9</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="22">
         <v>4</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="22">
         <v>4</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="22">
         <v>2</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="20">
         <v>2.5499999999999998</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
         <v>2550000</v>
       </c>
-      <c r="W14" s="21" t="s">
+      <c r="W14" s="19" t="s">
         <v>102</v>
       </c>
       <c r="X14">
         <v>2550000</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>760</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
@@ -1831,22 +1963,22 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="G17" s="26" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="G17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="L17" s="26" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="L17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="26"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
@@ -1893,8 +2025,8 @@
       <c r="E19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>4</v>
+      <c r="G19" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="H19" s="4">
         <v>400</v>
@@ -1905,10 +2037,10 @@
       <c r="J19" s="4">
         <v>250</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="22">
         <v>62</v>
       </c>
     </row>
@@ -1925,8 +2057,8 @@
       <c r="E20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
+      <c r="G20" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="H20" s="4">
         <v>630</v>
@@ -1937,10 +2069,10 @@
       <c r="J20" s="4">
         <v>320</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="22">
         <v>68</v>
       </c>
     </row>
@@ -1957,8 +2089,8 @@
       <c r="E21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>6</v>
+      <c r="G21" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="H21" s="4">
         <v>1000</v>
@@ -1969,10 +2101,10 @@
       <c r="J21" s="4">
         <v>1500</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="22">
         <v>66</v>
       </c>
       <c r="N21" t="s">
@@ -1992,8 +2124,8 @@
       <c r="E22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>7</v>
+      <c r="G22" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="H22" s="4">
         <v>580</v>
@@ -2004,10 +2136,10 @@
       <c r="J22" s="4">
         <v>150</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="22">
         <v>66</v>
       </c>
     </row>
@@ -2024,8 +2156,8 @@
       <c r="E23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
+      <c r="G23" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="H23" s="4">
         <v>590</v>
@@ -2036,10 +2168,10 @@
       <c r="J23" s="4">
         <v>350</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="22">
         <v>61</v>
       </c>
     </row>
@@ -2056,8 +2188,8 @@
       <c r="E24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>9</v>
+      <c r="G24" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="H24" s="4">
         <v>410</v>
@@ -2068,10 +2200,10 @@
       <c r="J24" s="4">
         <v>200</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="22">
         <v>71</v>
       </c>
     </row>
@@ -2088,8 +2220,8 @@
       <c r="E25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>10</v>
+      <c r="G25" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="H25" s="4">
         <v>895</v>
@@ -2100,10 +2232,10 @@
       <c r="J25" s="4">
         <v>700</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="22">
         <v>61</v>
       </c>
     </row>
@@ -2120,8 +2252,8 @@
       <c r="E26" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>11</v>
+      <c r="G26" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="H26" s="4">
         <v>1320</v>
@@ -2132,10 +2264,10 @@
       <c r="J26" s="4">
         <v>1000</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="22">
         <v>71</v>
       </c>
     </row>
@@ -2152,8 +2284,8 @@
       <c r="E27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>12</v>
+      <c r="G27" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="H27" s="4">
         <v>100</v>
@@ -2164,10 +2296,10 @@
       <c r="J27" s="4">
         <v>290</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="22">
         <v>62</v>
       </c>
     </row>
@@ -2184,8 +2316,8 @@
       <c r="E28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>13</v>
+      <c r="G28" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="H28" s="4">
         <v>815</v>
@@ -2196,10 +2328,10 @@
       <c r="J28" s="4">
         <v>510</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="22">
         <v>69</v>
       </c>
     </row>
@@ -2216,8 +2348,8 @@
       <c r="E29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>14</v>
+      <c r="G29" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="H29" s="4">
         <v>760</v>
@@ -2228,10 +2360,10 @@
       <c r="J29" s="4">
         <v>520</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="22">
         <v>70</v>
       </c>
     </row>
@@ -2247,24 +2379,24 @@
       </c>
     </row>
     <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="G32" s="31" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="G32" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
-      <c r="L32" s="31" t="s">
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
+      <c r="L32" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="33"/>
     </row>
     <row r="33" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -2332,13 +2464,13 @@
       <c r="L34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="22">
         <v>21</v>
       </c>
-      <c r="N34" s="24">
+      <c r="N34" s="22">
         <v>72.2</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O34" s="22">
         <v>88.5</v>
       </c>
     </row>
@@ -2370,13 +2502,13 @@
       <c r="L35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="22">
         <v>15</v>
       </c>
-      <c r="N35" s="24">
+      <c r="N35" s="22">
         <v>64.599999999999994</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O35" s="22">
         <v>70.8</v>
       </c>
     </row>
@@ -2408,13 +2540,13 @@
       <c r="L36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="22">
         <v>18</v>
       </c>
-      <c r="N36" s="24">
+      <c r="N36" s="22">
         <v>36</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="22">
         <v>67.849999999999994</v>
       </c>
     </row>
@@ -2446,13 +2578,13 @@
       <c r="L37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="22">
         <v>15</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="22">
         <v>72.2</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="22">
         <v>88.5</v>
       </c>
     </row>
@@ -2484,13 +2616,13 @@
       <c r="L38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="22">
         <v>22</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38" s="22">
         <v>57</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="22">
         <v>61.95</v>
       </c>
     </row>
@@ -2522,13 +2654,13 @@
       <c r="L39" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="22">
         <v>14.7</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="22">
         <v>40</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="22">
         <v>40</v>
       </c>
     </row>
@@ -2560,13 +2692,13 @@
       <c r="L40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="22">
         <v>21</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N40" s="22">
         <v>72.2</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="22">
         <v>76.7</v>
       </c>
     </row>
@@ -2598,13 +2730,13 @@
       <c r="L41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="22">
         <v>15.4</v>
       </c>
-      <c r="N41" s="24">
+      <c r="N41" s="22">
         <v>45.6</v>
       </c>
-      <c r="O41" s="24">
+      <c r="O41" s="22">
         <v>44.25</v>
       </c>
     </row>
@@ -2636,23 +2768,23 @@
       <c r="L42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="22">
         <v>14</v>
       </c>
-      <c r="N42" s="24">
+      <c r="N42" s="22">
         <v>34</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="22">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2684,7 +2816,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="4">
@@ -2716,7 +2848,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="4">
@@ -2748,7 +2880,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C49" s="4">
@@ -2780,7 +2912,7 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C50" s="4">
@@ -2812,7 +2944,7 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="4">
@@ -2844,7 +2976,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C52" s="4">
@@ -2876,7 +3008,7 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C53" s="4">
@@ -2908,7 +3040,7 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="4">
@@ -2940,7 +3072,7 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="4">
@@ -2972,7 +3104,7 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C56" s="4">
@@ -3004,7 +3136,7 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4">
@@ -3037,16 +3169,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:P2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3519,23 +3651,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="5b7d7f9c-6463-4d0f-a88b-06457380a41d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E26B5F1884195D4F973AD9452FB5C780" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed9bcaa5cc46bf96181d1efbb5fe1d41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b7d7f9c-6463-4d0f-a88b-06457380a41d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d586421a777b5f8e1956aea8b6f3c6a" ns2:_="">
     <xsd:import namespace="5b7d7f9c-6463-4d0f-a88b-06457380a41d"/>
@@ -3661,25 +3776,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB65B8F-BB5D-4294-A35B-CB80686E0004}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5b7d7f9c-6463-4d0f-a88b-06457380a41d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C36FF0-0D4C-47EA-BF9B-D1C1FAA3C6E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="5b7d7f9c-6463-4d0f-a88b-06457380a41d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5269ECEF-58D3-4B62-AE39-1BD81BB09A85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3695,4 +3809,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C36FF0-0D4C-47EA-BF9B-D1C1FAA3C6E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB65B8F-BB5D-4294-A35B-CB80686E0004}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5b7d7f9c-6463-4d0f-a88b-06457380a41d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dados - Trabalho.xlsx
+++ b/Dados - Trabalho.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klysm\Desktop\GitHub\trabalho-QuanDec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084E269D-51A7-449F-8A83-69F9BC84334C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8028BCF-372E-4D3A-BD71-DC69E497EB09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29160" yWindow="13605" windowWidth="22170" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27345" yWindow="14100" windowWidth="22170" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados - Originais" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="142">
   <si>
     <t>Fábricas</t>
   </si>
@@ -443,6 +443,21 @@
   </si>
   <si>
     <t>11.4</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>11.5</t>
   </si>
 </sst>
 </file>
@@ -524,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -632,22 +647,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,13 +709,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1061,9 +1059,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B462-4D54-E94E-AE48-D7CCFB0FBF96}">
-  <dimension ref="B1:AC57"/>
+  <dimension ref="B1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J29" sqref="G19:J29"/>
     </sheetView>
   </sheetViews>
@@ -1088,32 +1086,32 @@
       </c>
     </row>
     <row r="2" spans="2:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="28"/>
-      <c r="G2" s="27" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="28"/>
-      <c r="R2" s="27" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="26"/>
+      <c r="R2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
+      <c r="S2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="2:29" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -1181,31 +1179,31 @@
       <c r="G4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="21">
-        <v>62</v>
-      </c>
-      <c r="I4" s="22">
+      <c r="H4" s="17">
+        <v>8</v>
+      </c>
+      <c r="I4" s="17">
         <v>3</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="17">
         <v>2</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="17">
         <v>8</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="17">
         <v>12</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="17">
         <v>11</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="17">
         <v>14</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="17">
         <v>14</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="17">
         <v>15</v>
       </c>
       <c r="R4" s="18" t="s">
@@ -1253,31 +1251,31 @@
       <c r="G5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="23">
-        <v>68</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="H5" s="17">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17">
         <v>2</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="17">
         <v>2</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="17">
         <v>7</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="17">
         <v>11</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="17">
         <v>10</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="17">
         <v>13</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="17">
         <v>13</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="17">
         <v>14</v>
       </c>
       <c r="R5" s="19" t="s">
@@ -1325,31 +1323,31 @@
       <c r="G6" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="23">
-        <v>66</v>
-      </c>
-      <c r="I6" s="22">
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
         <v>5</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="17">
         <v>3</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="17">
         <v>6</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="17">
         <v>10</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="17">
         <v>10</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="17">
         <v>15</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="17">
         <v>9</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="17">
         <v>11</v>
       </c>
       <c r="R6" s="19" t="s">
@@ -1397,31 +1395,31 @@
       <c r="G7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="23">
-        <v>66</v>
-      </c>
-      <c r="I7" s="22">
+      <c r="H7" s="17">
+        <v>3</v>
+      </c>
+      <c r="I7" s="17">
         <v>4</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="17">
         <v>3</v>
       </c>
-      <c r="K7" s="22">
-        <v>7.8</v>
-      </c>
-      <c r="L7" s="22">
+      <c r="K7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="17">
         <v>11</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="17">
         <v>12</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="17">
         <v>13</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="17">
         <v>11</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="17">
         <v>12</v>
       </c>
       <c r="R7" s="19" t="s">
@@ -1469,31 +1467,31 @@
       <c r="G8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="23">
-        <v>61</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="H8" s="17">
+        <v>9</v>
+      </c>
+      <c r="I8" s="17">
         <v>6</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="17">
         <v>8</v>
       </c>
-      <c r="K8" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="K8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="17">
         <v>4</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="17">
         <v>7</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="17">
         <v>11</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="17">
         <v>8</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="17">
         <v>9</v>
       </c>
       <c r="R8" s="19" t="s">
@@ -1541,31 +1539,31 @@
       <c r="G9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="23">
-        <v>71</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="H9" s="17">
+        <v>9</v>
+      </c>
+      <c r="I9" s="17">
         <v>7</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="17">
         <v>9</v>
       </c>
-      <c r="K9" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="L9" s="22">
+      <c r="K9" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="17">
         <v>4</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="17">
         <v>8</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="17">
         <v>9</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="17">
         <v>8</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="17">
         <v>8</v>
       </c>
       <c r="R9" s="19" t="s">
@@ -1613,31 +1611,31 @@
       <c r="G10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="23">
-        <v>61</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="H10" s="17">
+        <v>13</v>
+      </c>
+      <c r="I10" s="17">
         <v>11</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="17">
         <v>9</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="17">
         <v>7</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="17">
         <v>3</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="17">
         <v>6</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="17">
         <v>6</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="17">
         <v>5</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="17">
         <v>5</v>
       </c>
       <c r="R10" s="19" t="s">
@@ -1685,31 +1683,31 @@
       <c r="G11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="23">
-        <v>71</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="H11" s="17">
+        <v>12</v>
+      </c>
+      <c r="I11" s="17">
         <v>15</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="17">
         <v>14</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="17">
         <v>9</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="17">
         <v>5</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="17">
         <v>5</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="17">
         <v>5</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="17">
         <v>1</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="17">
         <v>3</v>
       </c>
       <c r="R11" s="19" t="s">
@@ -1757,31 +1755,31 @@
       <c r="G12" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="23">
-        <v>62</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="H12" s="17">
+        <v>13</v>
+      </c>
+      <c r="I12" s="17">
         <v>15</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="17">
         <v>14</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="17">
         <v>9</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="17">
         <v>6</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="17">
         <v>6</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="17">
         <v>6</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="17">
         <v>2</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="17">
         <v>4</v>
       </c>
       <c r="R12" s="19" t="s">
@@ -1829,31 +1827,31 @@
       <c r="G13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="23">
-        <v>69</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="17">
+        <v>14</v>
+      </c>
+      <c r="I13" s="17">
         <v>16</v>
       </c>
-      <c r="J13" s="22">
-        <v>16.5</v>
-      </c>
-      <c r="K13" s="22">
-        <v>11.5</v>
-      </c>
-      <c r="L13" s="22">
+      <c r="J13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="17">
         <v>9</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="17">
         <v>8</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="17">
         <v>3</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="17">
         <v>4</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="17">
         <v>2</v>
       </c>
       <c r="R13" s="19" t="s">
@@ -1901,31 +1899,31 @@
       <c r="G14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="23">
-        <v>70</v>
-      </c>
-      <c r="I14" s="22">
-        <v>16.5</v>
-      </c>
-      <c r="J14" s="22">
-        <v>16.5</v>
-      </c>
-      <c r="K14" s="22">
+      <c r="H14" s="17">
+        <v>15</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="17">
         <v>12</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="17">
         <v>10</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="17">
         <v>9</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="17">
         <v>4</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="17">
         <v>4</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="17">
         <v>2</v>
       </c>
       <c r="R14" s="19" t="s">
@@ -1963,22 +1961,22 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="31" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="G17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="L17" s="31" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="L17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="31"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
@@ -2025,7 +2023,7 @@
       <c r="E19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H19" s="4">
@@ -2037,10 +2035,10 @@
       <c r="J19" s="4">
         <v>250</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <v>62</v>
       </c>
     </row>
@@ -2057,7 +2055,7 @@
       <c r="E20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="22" t="s">
         <v>94</v>
       </c>
       <c r="H20" s="4">
@@ -2069,10 +2067,10 @@
       <c r="J20" s="4">
         <v>320</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <v>68</v>
       </c>
     </row>
@@ -2089,7 +2087,7 @@
       <c r="E21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>93</v>
       </c>
       <c r="H21" s="4">
@@ -2101,10 +2099,10 @@
       <c r="J21" s="4">
         <v>1500</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="21">
         <v>66</v>
       </c>
       <c r="N21" t="s">
@@ -2124,7 +2122,7 @@
       <c r="E22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>92</v>
       </c>
       <c r="H22" s="4">
@@ -2136,10 +2134,10 @@
       <c r="J22" s="4">
         <v>150</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <v>66</v>
       </c>
     </row>
@@ -2156,7 +2154,7 @@
       <c r="E23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="22" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="4">
@@ -2168,10 +2166,10 @@
       <c r="J23" s="4">
         <v>350</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="21">
         <v>61</v>
       </c>
     </row>
@@ -2188,7 +2186,7 @@
       <c r="E24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>97</v>
       </c>
       <c r="H24" s="4">
@@ -2200,10 +2198,10 @@
       <c r="J24" s="4">
         <v>200</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="21">
         <v>71</v>
       </c>
     </row>
@@ -2220,7 +2218,7 @@
       <c r="E25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="22" t="s">
         <v>98</v>
       </c>
       <c r="H25" s="4">
@@ -2232,10 +2230,10 @@
       <c r="J25" s="4">
         <v>700</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="21">
         <v>61</v>
       </c>
     </row>
@@ -2252,7 +2250,7 @@
       <c r="E26" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="22" t="s">
         <v>99</v>
       </c>
       <c r="H26" s="4">
@@ -2264,10 +2262,10 @@
       <c r="J26" s="4">
         <v>1000</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <v>71</v>
       </c>
     </row>
@@ -2284,7 +2282,7 @@
       <c r="E27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="22" t="s">
         <v>100</v>
       </c>
       <c r="H27" s="4">
@@ -2296,10 +2294,10 @@
       <c r="J27" s="4">
         <v>290</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <v>62</v>
       </c>
     </row>
@@ -2316,7 +2314,7 @@
       <c r="E28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="22" t="s">
         <v>101</v>
       </c>
       <c r="H28" s="4">
@@ -2328,10 +2326,10 @@
       <c r="J28" s="4">
         <v>510</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L28" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <v>69</v>
       </c>
     </row>
@@ -2348,7 +2346,7 @@
       <c r="E29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="22" t="s">
         <v>102</v>
       </c>
       <c r="H29" s="4">
@@ -2360,10 +2358,10 @@
       <c r="J29" s="4">
         <v>520</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="21">
         <v>70</v>
       </c>
     </row>
@@ -2379,26 +2377,26 @@
       </c>
     </row>
     <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="G32" s="32" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="G32" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="L32" s="32" t="s">
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="L32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="33"/>
-    </row>
-    <row r="33" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>113</v>
       </c>
@@ -2464,17 +2462,32 @@
       <c r="L34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="21">
         <v>21</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="21">
         <v>72.2</v>
       </c>
-      <c r="O34" s="22">
+      <c r="O34" s="21">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q34">
+        <f>C34*100</f>
+        <v>69300</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:S34" si="1">D34*100</f>
+        <v>78100</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>105</v>
       </c>
@@ -2502,17 +2515,32 @@
       <c r="L35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <v>15</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="21">
         <v>64.599999999999994</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="21">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:Q42" si="2">C35*100</f>
+        <v>23100</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35:R42" si="3">D35*100</f>
+        <v>47300</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:S42" si="4">E35*100</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
@@ -2540,17 +2568,32 @@
       <c r="L36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="21">
         <v>18</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="21">
         <v>36</v>
       </c>
-      <c r="O36" s="22">
+      <c r="O36" s="21">
         <v>67.849999999999994</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>7300</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>107</v>
       </c>
@@ -2578,17 +2621,32 @@
       <c r="L37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="21">
         <v>15</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="21">
         <v>72.2</v>
       </c>
-      <c r="O37" s="22">
+      <c r="O37" s="21">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>45100</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>50600</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>108</v>
       </c>
@@ -2616,17 +2674,32 @@
       <c r="L38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="21">
         <v>22</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="21">
         <v>57</v>
       </c>
-      <c r="O38" s="22">
+      <c r="O38" s="21">
         <v>61.95</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>14100</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>9900</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>109</v>
       </c>
@@ -2654,17 +2727,32 @@
       <c r="L39" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="21">
         <v>14.7</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="21">
         <v>40</v>
       </c>
-      <c r="O39" s="22">
+      <c r="O39" s="21">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>7300</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>110</v>
       </c>
@@ -2692,17 +2780,32 @@
       <c r="L40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="21">
         <v>21</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="21">
         <v>72.2</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40" s="21">
         <v>76.7</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>6800</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>111</v>
       </c>
@@ -2730,17 +2833,32 @@
       <c r="L41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="21">
         <v>15.4</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="21">
         <v>45.6</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O41" s="21">
         <v>44.25</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>57200</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>64300</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>112</v>
       </c>
@@ -2768,23 +2886,38 @@
       <c r="L42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="21">
         <v>14</v>
       </c>
-      <c r="N42" s="22">
+      <c r="N42" s="21">
         <v>34</v>
       </c>
-      <c r="O42" s="22">
+      <c r="O42" s="21">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="25" t="s">
+      <c r="P42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>22500</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>34600</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="4"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="2:19" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2815,7 +2948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
         <v>95</v>
       </c>
@@ -2847,7 +2980,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>94</v>
       </c>
@@ -3165,6 +3298,457 @@
       </c>
       <c r="K57" s="4">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59">
+        <f>C47*1000</f>
+        <v>800000</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:K59" si="5">D47*1000</f>
+        <v>4000000</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>500000</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>300000</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:K60" si="6">C48*1000</f>
+        <v>1500000</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="6"/>
+        <v>5000000</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>1000000</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>500000</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>500000</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>300000</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="6"/>
+        <v>1000000</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="6"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:K61" si="7">C49*1000</f>
+        <v>5000000</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="7"/>
+        <v>3500000</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="7"/>
+        <v>2000000</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="7"/>
+        <v>1000000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="7"/>
+        <v>800000</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>1000000</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:K62" si="8">C50*1000</f>
+        <v>3000000</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="8"/>
+        <v>1000000</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="8"/>
+        <v>2000000</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="8"/>
+        <v>500000</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="8"/>
+        <v>500000</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:K63" si="9">C51*1000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="9"/>
+        <v>1000000</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="9"/>
+        <v>500000</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="9"/>
+        <v>2000000</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="9"/>
+        <v>500000</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="9"/>
+        <v>500000</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="9"/>
+        <v>100000</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="9"/>
+        <v>100000</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="9"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:K64" si="10">C52*1000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="10"/>
+        <v>1000000</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="10"/>
+        <v>500000</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="10"/>
+        <v>2000000</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="10"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:K65" si="11">C53*1000</f>
+        <v>500000</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="11"/>
+        <v>500000</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="11"/>
+        <v>600000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="11"/>
+        <v>500000</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="11"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:K66" si="12">C54*1000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="12"/>
+        <v>3500000</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="12"/>
+        <v>500000</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="12"/>
+        <v>1000000</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="12"/>
+        <v>100000</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="12"/>
+        <v>2000000</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="12"/>
+        <v>3000000</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="12"/>
+        <v>5000000</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="12"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:K67" si="13">C55*1000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="13"/>
+        <v>1000000</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="13"/>
+        <v>500000</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="13"/>
+        <v>600000</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="13"/>
+        <v>300000</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="13"/>
+        <v>2000000</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="13"/>
+        <v>1000000</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="13"/>
+        <v>2000000</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="13"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:K68" si="14">C56*1000</f>
+        <v>600000</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="14"/>
+        <v>2000000</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="14"/>
+        <v>500000</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="14"/>
+        <v>600000</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="14"/>
+        <v>300000</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="14"/>
+        <v>1500000</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="14"/>
+        <v>3500000</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="14"/>
+        <v>1000000</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="14"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:K69" si="15">C57*1000</f>
+        <v>600000</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="15"/>
+        <v>2000000</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="15"/>
+        <v>500000</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="15"/>
+        <v>600000</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="15"/>
+        <v>300000</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="15"/>
+        <v>500000</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="15"/>
+        <v>3500000</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="15"/>
+        <v>1000000</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="15"/>
+        <v>5000000</v>
       </c>
     </row>
   </sheetData>
